--- a/storage/app/excel/templates/kvpp.xlsx
+++ b/storage/app/excel/templates/kvpp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\business-processes2\storage\app\excel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\business-processes2\storage\app\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C12EE08-D916-4F90-A4B1-E8BB9390A1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E13DE7-E51A-4AF5-BC21-93E4B5C47D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Страна</t>
   </si>
@@ -57,18 +57,6 @@
     <t>Приоритет</t>
   </si>
   <si>
-    <t>Источник</t>
-  </si>
-  <si>
-    <t>РУ</t>
-  </si>
-  <si>
-    <t>Инофрмация</t>
-  </si>
-  <si>
-    <t>Дата ПО</t>
-  </si>
-  <si>
     <t>Прогноз 1 год</t>
   </si>
   <si>
@@ -97,6 +85,21 @@
   </si>
   <si>
     <t>Совпадение с ИВП</t>
+  </si>
+  <si>
+    <t>Источник E</t>
+  </si>
+  <si>
+    <t>Источник ИН</t>
+  </si>
+  <si>
+    <t>ПК</t>
+  </si>
+  <si>
+    <t>Доп инфо для поиска</t>
+  </si>
+  <si>
+    <t>Доп Cтран для поиска</t>
   </si>
 </sst>
 </file>
@@ -517,112 +520,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
